--- a/Excel Projects/International Company Orders and Shipment/Orders and Shipment.xlsx
+++ b/Excel Projects/International Company Orders and Shipment/Orders and Shipment.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/International Company Orders and Shipment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC158F9E-A3FA-0E43-875B-08E3AC23809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7983959-5970-6045-9E40-C07D83AE160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="760" windowWidth="29380" windowHeight="17420" xr2:uid="{241BA30E-E527-3E4B-A561-3ED080A0157B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{241BA30E-E527-3E4B-A561-3ED080A0157B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Color Codes" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
+    <sheet name="Color Codes" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -158,13 +159,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0D2D43"/>
+      <color rgb="FF1F2427"/>
       <color rgb="FF27CED7"/>
       <color rgb="FF0E5672"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF0066"/>
-      <color rgb="FF0D2D43"/>
-      <color rgb="FF1F2427"/>
     </mruColors>
   </colors>
   <extLst>
@@ -176,6 +177,413 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9C93A5-7405-DD17-2B10-056068AFC90D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="1031874"/>
+          <a:ext cx="3302000" cy="1031876"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0D2D43"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46447BB5-DEF0-DC52-D9B2-EEE34C7672DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3730625" y="1031876"/>
+          <a:ext cx="3302000" cy="1031874"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0D2D43"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF8B000-42F3-D7EA-991C-E8DD54DB1BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7556499" y="1031876"/>
+          <a:ext cx="9096376" cy="1031874"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0D2D43"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>206373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>207817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C987A3E0-F830-15D5-1EBC-47B6A1AA814F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7608455" y="2284555"/>
+          <a:ext cx="9138226" cy="3326535"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7358"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0D2D43"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539749</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381E1754-C8C4-041C-628D-692AF792F297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572374" y="5778500"/>
+          <a:ext cx="9080501" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 18382"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0D2D43"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3920295A-3EE8-A38E-7500-4AA4C952BFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="2286000"/>
+          <a:ext cx="6823364" cy="5194010"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4374"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0D2D43"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,10 +882,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC67C2A-BB2D-A244-B99B-77DEE9129A42}">
+  <dimension ref="A1:AB37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="22" width="10.83203125" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A0B83E-AAD7-9C44-8070-227DF6129867}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
